--- a/biology/Biologie cellulaire et moléculaire/Guanylate_cyclase/Guanylate_cyclase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Guanylate_cyclase/Guanylate_cyclase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système guanylate cyclase permet, comme les systèmes adénylate cyclase et phospholipase C, une amplification d'un message hormonal aboutissant à une réponse cellulaire.
 La guanylate cyclase dégrade la GTP en GMP cyclique ou GMPc (second messager). Le système d'amplification du message hormonal (premier messager) est lié à l'activité d'une protéine kinase GMPc dépendante (PKG).
@@ -515,7 +527,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un hétérodimère formé de deux sous-unités, alpha et bêta dont les gènes sont GUCY1A2, GUCY1A3, GUCY1B2 et GUCY1B3.
 </t>
@@ -546,7 +560,9 @@
           <t>Activation de la forme membranaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est constituée de quatre domaines :
 un domaine extracellulaire N terminal ;
@@ -583,7 +599,9 @@
           <t>Activation de la forme soluble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Guanylate Cyclase soluble est constituée d’un hétérodimère α β sensible au NO (monoxyde d’azote : le NO est produit par le catabolisme de l’arginine). La fixation de NO sur α et β va permettre l’activation de la guanylate cyclase. La forme soluble est également activée par des intermédiaires de biosynthèse des éïcosanoïdes, et par d'autres dérivés nitrés comme le nitrite d'isoamyle et le nitroprussiate de sodium.
 </t>
@@ -614,7 +632,9 @@
           <t>Inactivation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le retour au repos s’effectue par hydrolyse du GMPc en 5’GMP grâce à une PDE (isoforme de celle impliquée dans le système adénylate cyclase/AMPc/PKA).
 </t>
@@ -645,10 +665,12 @@
           <t>Utilisation médicale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'hypertension artérielle il y a un défaut de production de NO, il ne pourra donc pas activer la guanylate cyclase. L'un des moyens de traitement consiste en l'administration de donneur de NO comme la nitroglycérine ou le nitroprussiate de sodium ou aussi inhiber les phosphodiesterases ce qui a pour effet de prolonger l'effet du GMPc produit.
-Le linaclotide est un cours peptide, activateur des récepteurs de la guanylate cyclase C situés au niveau de l'endothélium de la lumière intestinale et permettant ainsi l'accélération du transit intestinal[1]. Il pourrait agir ainsi contre la constipation et est en cours de test dans cette indication[2]. Le plecanatide est une autre molécule de la même famille.
+Le linaclotide est un cours peptide, activateur des récepteurs de la guanylate cyclase C situés au niveau de l'endothélium de la lumière intestinale et permettant ainsi l'accélération du transit intestinal. Il pourrait agir ainsi contre la constipation et est en cours de test dans cette indication. Le plecanatide est une autre molécule de la même famille.
 Le riociguat est une molécule activatrice de la guanylate cyclase soluble et testée notamment dans l'hypertension artérielle pulmonaire.
 </t>
         </is>
